--- a/public/templates/Reports/Disbursement Report - Detailed.xlsx
+++ b/public/templates/Reports/Disbursement Report - Detailed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashbeemorgado/devs/lumen/public/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelsontan/Projects/Lumen/public/templates/Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7653B46-6BE0-D446-AC44-0C07182BE89F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB402AEB-F722-944B-8E78-473713BC7B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,11 +16,20 @@
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>office_id</t>
   </si>
@@ -89,6 +98,12 @@
   </si>
   <si>
     <t>INSTALLMENT TYPE</t>
+  </si>
+  <si>
+    <t>RCBU</t>
+  </si>
+  <si>
+    <t>MCBU</t>
   </si>
 </sst>
 </file>
@@ -451,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AJ2"/>
+  <dimension ref="A2:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -477,18 +492,19 @@
     <col min="16" max="16" width="17.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="12.83203125" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -544,18 +560,24 @@
         <v>18</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AJ2" t="s">
         <v>0</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>2</v>
       </c>
     </row>
